--- a/CQ861標-門樘烤漆顔色區分_更新.xlsx
+++ b/CQ861標-門樘烤漆顔色區分_更新.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:H206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>五金組別</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>備註</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr"/>
@@ -500,6 +505,7 @@
       <c r="G2" t="n">
         <v>17</v>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -531,6 +537,7 @@
       <c r="G3" t="n">
         <v>17</v>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -564,6 +571,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -595,6 +607,7 @@
       <c r="G5" t="n">
         <v>9</v>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -626,6 +639,7 @@
       <c r="G6" t="n">
         <v>9</v>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -657,6 +671,7 @@
       <c r="G7" t="n">
         <v>8</v>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -688,6 +703,7 @@
       <c r="G8" t="n">
         <v>21</v>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -719,6 +735,7 @@
       <c r="G9" t="n">
         <v>21</v>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -750,6 +767,7 @@
       <c r="G10" t="n">
         <v>21</v>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -781,6 +799,7 @@
       <c r="G11" t="n">
         <v>21</v>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -812,6 +831,7 @@
       <c r="G12" t="n">
         <v>21</v>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -845,6 +865,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -878,6 +903,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -909,6 +939,7 @@
       <c r="G15" t="n">
         <v>21</v>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -940,6 +971,7 @@
       <c r="G16" t="n">
         <v>21</v>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -973,6 +1005,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1006,6 +1043,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1037,6 +1079,7 @@
       <c r="G19" t="n">
         <v>21</v>
       </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1070,6 +1113,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1103,6 +1151,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1136,6 +1189,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -1167,6 +1225,7 @@
       <c r="G23" t="n">
         <v>15</v>
       </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -1200,6 +1259,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1233,6 +1297,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>位於Y11站/遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -1264,6 +1333,11 @@
       <c r="G26" t="n">
         <v>7</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>位於Y11站</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1301,6 +1375,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/遮煙性/常開門</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1338,6 +1417,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/遮煙性/常開門</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1373,9 +1457,18 @@
       <c r="G29" t="n">
         <v>1</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/常開門/加電磁扣</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>B305</t>
@@ -1404,9 +1497,18 @@
       <c r="G30" t="n">
         <v>13</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/常開門</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>B306</t>
@@ -1435,9 +1537,18 @@
       <c r="G31" t="n">
         <v>1</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/常開門</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>B307</t>
@@ -1465,6 +1576,11 @@
       </c>
       <c r="G32" t="n">
         <v>13</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>位於LG06-Y11站/常開門</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1497,6 +1613,7 @@
       <c r="G33" t="n">
         <v>18</v>
       </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1530,6 +1647,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1561,6 +1683,11 @@
           <t>    </t>
         </is>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>電動滑門</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1592,6 +1719,11 @@
           <t>    </t>
         </is>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>電動滑門</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1623,6 +1755,7 @@
       <c r="G37" t="n">
         <v>14</v>
       </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1654,6 +1787,7 @@
       <c r="G38" t="n">
         <v>10</v>
       </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1685,6 +1819,7 @@
       <c r="G39" t="n">
         <v>11</v>
       </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1716,6 +1851,7 @@
       <c r="G40" t="n">
         <v>9</v>
       </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1747,6 +1883,7 @@
       <c r="G41" t="n">
         <v>13</v>
       </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1778,6 +1915,7 @@
       <c r="G42" t="n">
         <v>21</v>
       </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1809,6 +1947,7 @@
       <c r="G43" t="n">
         <v>21</v>
       </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1840,6 +1979,7 @@
       <c r="G44" t="n">
         <v>21</v>
       </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1871,6 +2011,7 @@
       <c r="G45" t="n">
         <v>8</v>
       </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1902,6 +2043,7 @@
       <c r="G46" t="n">
         <v>21</v>
       </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1933,6 +2075,7 @@
       <c r="G47" t="n">
         <v>21</v>
       </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1964,6 +2107,7 @@
       <c r="G48" t="n">
         <v>21</v>
       </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1995,6 +2139,7 @@
       <c r="G49" t="n">
         <v>21</v>
       </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -2026,6 +2171,7 @@
       <c r="G50" t="n">
         <v>21</v>
       </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -2059,6 +2205,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -2090,6 +2241,7 @@
       <c r="G52" t="n">
         <v>5</v>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -2123,6 +2275,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -2156,6 +2313,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -2189,6 +2351,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -2220,6 +2387,7 @@
       <c r="G56" t="n">
         <v>21</v>
       </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -2251,6 +2419,7 @@
       <c r="G57" t="n">
         <v>21</v>
       </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -2280,6 +2449,11 @@
       <c r="G58" t="n">
         <v>19</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>維修緊急閘門</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -2313,6 +2487,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -2342,6 +2521,11 @@
       <c r="G60" t="n">
         <v>19</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>維修緊急閘門</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -2375,9 +2559,18 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>C141</t>
@@ -2406,9 +2599,18 @@
       <c r="G62" t="n">
         <v>13</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>常開門</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>✔</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>C142</t>
@@ -2436,6 +2638,11 @@
       </c>
       <c r="G63" t="n">
         <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>常開門</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -2466,6 +2673,11 @@
       <c r="G64" t="n">
         <v>19</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>維修緊急閘門</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -2495,6 +2707,11 @@
       <c r="G65" t="n">
         <v>19</v>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>維修緊急閘門</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -2526,6 +2743,7 @@
       <c r="G66" t="n">
         <v>21</v>
       </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -2557,6 +2775,7 @@
       <c r="G67" t="n">
         <v>21</v>
       </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -2588,6 +2807,7 @@
       <c r="G68" t="n">
         <v>5</v>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -2619,6 +2839,7 @@
       <c r="G69" t="n">
         <v>21</v>
       </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -2650,6 +2871,7 @@
       <c r="G70" t="n">
         <v>21</v>
       </c>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -2681,6 +2903,7 @@
       <c r="G71" t="n">
         <v>21</v>
       </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -2712,6 +2935,7 @@
       <c r="G72" t="n">
         <v>21</v>
       </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -2743,6 +2967,11 @@
       <c r="G73" t="n">
         <v>4</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -2774,6 +3003,7 @@
       <c r="G74" t="n">
         <v>8</v>
       </c>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -2807,6 +3037,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -2840,6 +3075,11 @@
           <t>29-2</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM/氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -2871,6 +3111,11 @@
       <c r="G77" t="n">
         <v>4</v>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -2904,6 +3149,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -2937,6 +3187,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -2968,6 +3223,7 @@
       <c r="G80" t="n">
         <v>8</v>
       </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -2999,6 +3255,7 @@
       <c r="G81" t="n">
         <v>15</v>
       </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -3032,6 +3289,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -3063,6 +3325,7 @@
       <c r="G83" t="n">
         <v>8</v>
       </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -3094,6 +3357,7 @@
       <c r="G84" t="n">
         <v>5</v>
       </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -3127,6 +3391,11 @@
           <t>29-2</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM/氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -3160,6 +3429,11 @@
           <t>29-2</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM/氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -3193,6 +3467,11 @@
           <t>29-2</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM/氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -3226,6 +3505,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -3259,6 +3543,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -3290,6 +3579,7 @@
       <c r="G90" t="n">
         <v>5</v>
       </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -3323,6 +3613,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -3354,6 +3649,7 @@
       <c r="G92" t="n">
         <v>5</v>
       </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -3385,6 +3681,7 @@
       <c r="G93" t="n">
         <v>28</v>
       </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -3418,6 +3715,11 @@
           <t>18-1</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -3451,6 +3753,11 @@
           <t>17-1</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -3482,6 +3789,7 @@
       <c r="G96" t="n">
         <v>28</v>
       </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -3515,6 +3823,11 @@
           <t>17-1</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -3548,6 +3861,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -3581,6 +3899,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -3614,6 +3937,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -3647,6 +3975,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -3680,6 +4013,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -3713,6 +4051,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -3746,6 +4089,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -3779,6 +4127,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -3812,6 +4165,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -3845,6 +4203,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -3876,6 +4239,7 @@
       <c r="G108" t="n">
         <v>5</v>
       </c>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -3909,6 +4273,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -3940,6 +4309,11 @@
       <c r="G110" t="n">
         <v>4</v>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -3971,6 +4345,7 @@
       <c r="G111" t="n">
         <v>5</v>
       </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -4002,6 +4377,7 @@
       <c r="G112" t="n">
         <v>5</v>
       </c>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -4035,6 +4411,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -4068,6 +4449,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -4099,6 +4485,7 @@
       <c r="G115" t="n">
         <v>9</v>
       </c>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -4130,6 +4517,7 @@
       <c r="G116" t="n">
         <v>15</v>
       </c>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -4163,6 +4551,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -4194,6 +4587,7 @@
       <c r="G118" t="n">
         <v>15</v>
       </c>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -4225,6 +4619,7 @@
       <c r="G119" t="n">
         <v>5</v>
       </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -4256,6 +4651,7 @@
       <c r="G120" t="n">
         <v>5</v>
       </c>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -4289,6 +4685,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -4320,6 +4721,7 @@
       <c r="G122" t="n">
         <v>5</v>
       </c>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -4353,6 +4755,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -4384,6 +4791,7 @@
       <c r="G124" t="n">
         <v>15</v>
       </c>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -4417,6 +4825,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -4450,6 +4863,11 @@
           <t xml:space="preserve"> 4-1</t>
         </is>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間/遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -4483,6 +4901,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -4516,6 +4939,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -4549,6 +4977,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -4582,6 +5015,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -4615,6 +5053,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -4648,6 +5091,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -4681,6 +5129,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -4714,6 +5167,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -4747,6 +5205,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -4780,6 +5243,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -4813,6 +5281,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -4846,6 +5319,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -4879,6 +5357,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -4910,6 +5393,7 @@
       <c r="G140" t="n">
         <v>5</v>
       </c>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -4941,6 +5425,7 @@
       <c r="G141" t="n">
         <v>21</v>
       </c>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -4972,6 +5457,7 @@
       <c r="G142" t="n">
         <v>5</v>
       </c>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -5003,6 +5489,7 @@
       <c r="G143" t="n">
         <v>7</v>
       </c>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -5034,6 +5521,7 @@
       <c r="G144" t="n">
         <v>21</v>
       </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -5067,6 +5555,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -5100,6 +5593,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -5133,6 +5631,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -5166,6 +5669,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -5199,6 +5707,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -5232,6 +5745,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -5265,6 +5783,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -5298,6 +5821,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -5329,6 +5857,7 @@
       <c r="G153" t="n">
         <v>21</v>
       </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -5360,6 +5889,7 @@
       <c r="G154" t="n">
         <v>5</v>
       </c>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -5393,6 +5923,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -5424,6 +5959,11 @@
       <c r="G156" t="n">
         <v>4</v>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -5455,6 +5995,7 @@
       <c r="G157" t="n">
         <v>7</v>
       </c>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -5488,6 +6029,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -5519,6 +6065,11 @@
       <c r="G159" t="n">
         <v>4</v>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -5550,6 +6101,7 @@
       <c r="G160" t="n">
         <v>5</v>
       </c>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -5583,6 +6135,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -5616,6 +6173,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -5647,6 +6209,7 @@
       <c r="G163" t="n">
         <v>21</v>
       </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -5680,6 +6243,11 @@
           <t>18-1</t>
         </is>
       </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr"/>
@@ -5713,6 +6281,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr"/>
@@ -5746,6 +6319,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr"/>
@@ -5779,6 +6357,11 @@
           <t>21-1</t>
         </is>
       </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
@@ -5812,6 +6395,11 @@
           <t xml:space="preserve"> 9-1</t>
         </is>
       </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
@@ -5845,6 +6433,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr"/>
@@ -5878,6 +6471,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
@@ -5911,6 +6509,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr"/>
@@ -5944,6 +6547,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr"/>
@@ -5975,6 +6583,7 @@
       <c r="G173" t="n">
         <v>21</v>
       </c>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr"/>
@@ -6006,6 +6615,7 @@
       <c r="G174" t="n">
         <v>18</v>
       </c>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr"/>
@@ -6037,6 +6647,7 @@
       <c r="G175" t="n">
         <v>5</v>
       </c>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr"/>
@@ -6070,6 +6681,11 @@
           <t xml:space="preserve"> 9-1</t>
         </is>
       </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr"/>
@@ -6103,6 +6719,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr"/>
@@ -6136,6 +6757,11 @@
           <t>21-1</t>
         </is>
       </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr"/>
@@ -6169,6 +6795,11 @@
           <t>21-1</t>
         </is>
       </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr"/>
@@ -6202,6 +6833,11 @@
           <t xml:space="preserve"> 1-1</t>
         </is>
       </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
@@ -6235,6 +6871,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
@@ -6268,6 +6909,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
@@ -6301,6 +6947,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr"/>
@@ -6334,6 +6985,11 @@
           <t>21-1</t>
         </is>
       </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr"/>
@@ -6367,6 +7023,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
@@ -6398,6 +7059,11 @@
       <c r="G186" t="n">
         <v>4</v>
       </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
@@ -6429,6 +7095,7 @@
       <c r="G187" t="n">
         <v>7</v>
       </c>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
@@ -6460,6 +7127,7 @@
       <c r="G188" t="n">
         <v>7</v>
       </c>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr"/>
@@ -6493,6 +7161,11 @@
           <t xml:space="preserve"> 7-1</t>
         </is>
       </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr"/>
@@ -6526,6 +7199,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
@@ -6559,6 +7237,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr"/>
@@ -6590,6 +7273,7 @@
       <c r="G192" t="n">
         <v>5</v>
       </c>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
@@ -6623,6 +7307,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
@@ -6656,6 +7345,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
@@ -6689,6 +7383,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>遮煙/氣體自動滅火</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr"/>
@@ -6722,6 +7421,11 @@
           <t xml:space="preserve"> 5-1</t>
         </is>
       </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
@@ -6755,6 +7459,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr"/>
@@ -6788,6 +7497,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr"/>
@@ -6821,6 +7535,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr"/>
@@ -6854,6 +7573,11 @@
           <t>29-2</t>
         </is>
       </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM/氣體自動滅火房間</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
@@ -6887,6 +7611,11 @@
           <t>29-1</t>
         </is>
       </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>遮煙/台度150MM</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr"/>
@@ -6918,6 +7647,7 @@
       <c r="G202" t="n">
         <v>15</v>
       </c>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
@@ -6951,6 +7681,11 @@
           <t>13-1</t>
         </is>
       </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr"/>
@@ -6984,6 +7719,11 @@
           <t>15-1</t>
         </is>
       </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>遮煙性</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
@@ -7015,6 +7755,7 @@
       <c r="G205" t="n">
         <v>15</v>
       </c>
+      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
@@ -7046,6 +7787,7 @@
       <c r="G206" t="n">
         <v>15</v>
       </c>
+      <c r="H206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
